--- a/Polaczenie-sieciowe_dla-RPi/Python_Scripts/Internal_camera_matrices/Dell.xlsx
+++ b/Polaczenie-sieciowe_dla-RPi/Python_Scripts/Internal_camera_matrices/Dell.xlsx
@@ -423,13 +423,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>4161.666900160672</v>
+        <v>1935.958723552665</v>
       </c>
       <c r="B1" t="n">
         <v>0</v>
       </c>
       <c r="C1" t="n">
-        <v>320.8194363562785</v>
+        <v>297.3135475655638</v>
       </c>
     </row>
     <row r="2">
@@ -437,10 +437,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7901.19542434267</v>
+        <v>14230.24755413485</v>
       </c>
       <c r="C2" t="n">
-        <v>236.2630324209943</v>
+        <v>196.1341726966365</v>
       </c>
     </row>
     <row r="3">

--- a/Polaczenie-sieciowe_dla-RPi/Python_Scripts/Internal_camera_matrices/Dell.xlsx
+++ b/Polaczenie-sieciowe_dla-RPi/Python_Scripts/Internal_camera_matrices/Dell.xlsx
@@ -423,13 +423,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1935.958723552665</v>
+        <v>633.8539463990473</v>
       </c>
       <c r="B1" t="n">
         <v>0</v>
       </c>
       <c r="C1" t="n">
-        <v>297.3135475655638</v>
+        <v>336.0495770352551</v>
       </c>
     </row>
     <row r="2">
@@ -437,10 +437,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14230.24755413485</v>
+        <v>631.7456478256637</v>
       </c>
       <c r="C2" t="n">
-        <v>196.1341726966365</v>
+        <v>252.3547532880906</v>
       </c>
     </row>
     <row r="3">
